--- a/ind_mortalidad_agresiones.xlsx
+++ b/ind_mortalidad_agresiones.xlsx
@@ -365,7 +365,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>sum(total)</t>
+          <t>tot_agresiones</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -384,13 +384,13 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>799216</v>
       </c>
       <c r="D2">
-        <v>17.67006666533203</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="3">
@@ -398,13 +398,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2277</v>
+        <v>207</v>
       </c>
       <c r="C3">
         <v>5274786</v>
       </c>
       <c r="D3">
-        <v>2.677302927550047</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="4">
@@ -412,13 +412,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>141443</v>
       </c>
       <c r="D4">
-        <v>99.84375331405585</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="5">
@@ -426,13 +426,13 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>396</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>1147482</v>
       </c>
       <c r="D5">
-        <v>12.30712115745606</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="6">
@@ -440,13 +440,13 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>385483</v>
       </c>
       <c r="D6">
-        <v>36.63507858971732</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="7">
@@ -454,13 +454,13 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>300</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>427364</v>
       </c>
       <c r="D7">
-        <v>33.04489849402383</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="8">
@@ -468,13 +468,13 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>191798</v>
       </c>
       <c r="D8">
-        <v>73.63059051710654</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="9">
@@ -482,13 +482,13 @@
         <v>30</v>
       </c>
       <c r="B9">
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>438959</v>
       </c>
       <c r="D9">
-        <v>32.17202517775009</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="10">
@@ -496,13 +496,13 @@
         <v>34</v>
       </c>
       <c r="B10">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>218064</v>
       </c>
       <c r="D10">
-        <v>64.76172132951794</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="11">
@@ -510,13 +510,13 @@
         <v>38</v>
       </c>
       <c r="B11">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>265407</v>
       </c>
       <c r="D11">
-        <v>53.20959884253242</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="12">
@@ -524,13 +524,13 @@
         <v>42</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>107894</v>
       </c>
       <c r="D12">
-        <v>130.889576806866</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="13">
@@ -538,13 +538,13 @@
         <v>46</v>
       </c>
       <c r="B13">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>133760</v>
       </c>
       <c r="D13">
-        <v>105.5786483253589</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="14">
@@ -552,13 +552,13 @@
         <v>50</v>
       </c>
       <c r="B14">
-        <v>286</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>620384</v>
       </c>
       <c r="D14">
-        <v>22.76364316294424</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="15">
@@ -566,13 +566,13 @@
         <v>54</v>
       </c>
       <c r="B15">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>458182</v>
       </c>
       <c r="D15">
-        <v>30.82224967371045</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="16">
@@ -580,13 +580,13 @@
         <v>58</v>
       </c>
       <c r="B16">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>208212</v>
       </c>
       <c r="D16">
-        <v>67.82606189844965</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="17">
@@ -594,13 +594,13 @@
         <v>62</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>232574</v>
       </c>
       <c r="D17">
-        <v>60.72131880605743</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="18">
@@ -608,13 +608,13 @@
         <v>66</v>
       </c>
       <c r="B18">
-        <v>319</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>502235</v>
       </c>
       <c r="D18">
-        <v>28.11870936912003</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="19">
@@ -622,13 +622,13 @@
         <v>70</v>
       </c>
       <c r="B19">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>260412</v>
       </c>
       <c r="D19">
-        <v>54.23021980553892</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="20">
@@ -636,13 +636,13 @@
         <v>74</v>
       </c>
       <c r="B20">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>165179</v>
       </c>
       <c r="D20">
-        <v>85.49634033381967</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="21">
@@ -650,13 +650,13 @@
         <v>78</v>
       </c>
       <c r="B21">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>116925</v>
       </c>
       <c r="D21">
-        <v>120.7799871712636</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="22">
@@ -664,13 +664,13 @@
         <v>82</v>
       </c>
       <c r="B22">
-        <v>1540</v>
+        <v>140</v>
       </c>
       <c r="C22">
         <v>1051300</v>
       </c>
       <c r="D22">
-        <v>13.433082849805</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="23">
@@ -678,13 +678,13 @@
         <v>86</v>
       </c>
       <c r="B23">
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>350754</v>
       </c>
       <c r="D23">
-        <v>40.26240613079252</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="24">
@@ -692,13 +692,13 @@
         <v>90</v>
       </c>
       <c r="B24">
-        <v>722</v>
+        <v>66</v>
       </c>
       <c r="C24">
         <v>568506</v>
       </c>
       <c r="D24">
-        <v>24.84089877679391</v>
+        <v>11.61</v>
       </c>
     </row>
     <row r="25">
@@ -706,13 +706,13 @@
         <v>94</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>55881</v>
       </c>
       <c r="D25">
-        <v>252.7191710957213</v>
+        <v>1.79</v>
       </c>
     </row>
   </sheetData>
